--- a/SRUM_TEMPLATE2.xlsx
+++ b/SRUM_TEMPLATE2.xlsx
@@ -1,43 +1,1440 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CHEN\01_devolment\04_Python\21_srum2\srum-dump-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69569E9-F999-4CF0-911B-1B23E267BAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-24885" yWindow="270" windowWidth="24525" windowHeight="14550" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Application Resource Usage" sheetId="2" r:id="rId1"/>
+    <sheet name="App Timeline Provider" sheetId="10" r:id="rId2"/>
+    <sheet name="Energy Estimation Provider" sheetId="15" r:id="rId3"/>
+    <sheet name="Energy Usage" sheetId="6" r:id="rId4"/>
+    <sheet name="Energy Usage LT" sheetId="5" r:id="rId5"/>
+    <sheet name="Tagged Energy Provider" sheetId="14" r:id="rId6"/>
+    <sheet name="Network Connectivity Usage" sheetId="3" r:id="rId7"/>
+    <sheet name="Network Data Usage" sheetId="1" r:id="rId8"/>
+    <sheet name="vfuprov" sheetId="13" r:id="rId9"/>
+    <sheet name="Windows Push Notifications" sheetId="4" r:id="rId10"/>
+    <sheet name="Undocumented Windows 10 VM Data" sheetId="7" r:id="rId11"/>
+    <sheet name="Lookup-Known SIDS" sheetId="8" r:id="rId12"/>
+    <sheet name="Lookup-LUID Interfaces" sheetId="9" r:id="rId13"/>
+    <sheet name="Lookup-ExampleNumNames" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="H">#NAME?</definedName>
+    <definedName name="I">#NAME?</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Undocumented Data"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Application Resource Usage"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Undocumented Data"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="3">"Energy Usage"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="4">"Energy Usage"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="6">"Network Connections"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="7">"Network Usage"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="5">"Undocumented Data"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="10">"Undocumented Data"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="8">"Undocumented Data"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="9">"Push Notification Data"</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <webPublishing css="0" allowPng="1" codePage="1252"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="437">
+  <si>
+    <t>AutoIncId</t>
+  </si>
+  <si>
+    <t>TimeStamp</t>
+  </si>
+  <si>
+    <t>AppId</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>InterfaceLuid</t>
+  </si>
+  <si>
+    <t>L2ProfileId</t>
+  </si>
+  <si>
+    <t>L2ProfileFlags</t>
+  </si>
+  <si>
+    <t>#XLS_COLUMN#</t>
+  </si>
+  <si>
+    <t>OLE</t>
+  </si>
+  <si>
+    <t>lookup_id</t>
+  </si>
+  <si>
+    <t>lookup_luid</t>
+  </si>
+  <si>
+    <t>interface_id</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>User SID</t>
+  </si>
+  <si>
+    <t>AutoIncId</t>
+  </si>
+  <si>
+    <t>ForegroundContextSwitches</t>
+  </si>
+  <si>
+    <t>BackgroundContextSwitches</t>
+  </si>
+  <si>
+    <t>ForegroundBytesRead</t>
+  </si>
+  <si>
+    <t>ForegroundBytesWritten</t>
+  </si>
+  <si>
+    <t>ForegroundNumReadOperations</t>
+  </si>
+  <si>
+    <t>ForegroundNumWriteOperations</t>
+  </si>
+  <si>
+    <t>ForegroundNumberOfFlushes</t>
+  </si>
+  <si>
+    <t>BackgroundBytesRead</t>
+  </si>
+  <si>
+    <t>BackgroundBytesWritten</t>
+  </si>
+  <si>
+    <t>BackgroundNumReadOperations</t>
+  </si>
+  <si>
+    <t>BackgroundNumWriteOperations</t>
+  </si>
+  <si>
+    <t>BackgroundNumberOfFlushes</t>
+  </si>
+  <si>
+    <t>Srum ID Number</t>
+  </si>
+  <si>
+    <t>Srum Entry Creation</t>
+  </si>
+  <si>
+    <t>ConnectedTime</t>
+  </si>
+  <si>
+    <t>ConnectStartTime</t>
+  </si>
+  <si>
+    <t>=H#ROW_NUM#+G#ROW_NUM#/86400</t>
+  </si>
+  <si>
+    <t>Calculated Stop Time</t>
+  </si>
+  <si>
+    <t>NotificationType</t>
+  </si>
+  <si>
+    <t>PayloadSize</t>
+  </si>
+  <si>
+    <t>NetworkType</t>
+  </si>
+  <si>
+    <t>ActiveAcTime</t>
+  </si>
+  <si>
+    <t>CsAcTime</t>
+  </si>
+  <si>
+    <t>ActiveDcTime</t>
+  </si>
+  <si>
+    <t>CsDcTime</t>
+  </si>
+  <si>
+    <t>ActiveDischargeTime</t>
+  </si>
+  <si>
+    <t>CsDischargeTime</t>
+  </si>
+  <si>
+    <t>ActiveEnergy</t>
+  </si>
+  <si>
+    <t>CsEnergy</t>
+  </si>
+  <si>
+    <t>DesignedCapacity</t>
+  </si>
+  <si>
+    <t>FullChargedCapacity</t>
+  </si>
+  <si>
+    <t>CycleCount</t>
+  </si>
+  <si>
+    <t>ConfigurationHash</t>
+  </si>
+  <si>
+    <t>StateTransition</t>
+  </si>
+  <si>
+    <t>BinaryData</t>
+  </si>
+  <si>
+    <t>{973F5D5C-1D90-4944-BE8E-24B94231A174}</t>
+  </si>
+  <si>
+    <t>BytesSent</t>
+  </si>
+  <si>
+    <t>BytesRecvd</t>
+  </si>
+  <si>
+    <t>=sum(H#ROW_NUM#:I#ROW_NUM#)</t>
+  </si>
+  <si>
+    <t>SRUM ENTRY NUMBER</t>
+  </si>
+  <si>
+    <t>SRUM ENTRY CREATION</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Profile Flags</t>
+  </si>
+  <si>
+    <t>Bytes Sent</t>
+  </si>
+  <si>
+    <t>Bytes Received</t>
+  </si>
+  <si>
+    <t>Total Bytes</t>
+  </si>
+  <si>
+    <t>OLE:%Y-%m-%d %H:%M:%S</t>
+  </si>
+  <si>
+    <t>{D10CA2FE-6FCF-4F6D-848E-B2E99266FA89}</t>
+  </si>
+  <si>
+    <t>ForegroundCycleTime</t>
+  </si>
+  <si>
+    <t>BackgroundCycleTime</t>
+  </si>
+  <si>
+    <t>FaceTime</t>
+  </si>
+  <si>
+    <t>CPU time in Forground</t>
+  </si>
+  <si>
+    <t>CPU time in background</t>
+  </si>
+  <si>
+    <t>FaceTime??</t>
+  </si>
+  <si>
+    <t>{DD6636C4-8929-4683-974E-22C046A43763}</t>
+  </si>
+  <si>
+    <t>SRUM Entry ID</t>
+  </si>
+  <si>
+    <t>SRUM Entry Creation</t>
+  </si>
+  <si>
+    <t>FILE:%Y-%m-%d %H:%M:%S</t>
+  </si>
+  <si>
+    <t>{D10CA2FE-6FCF-4F6D-848E-B2E99266FA86}</t>
+  </si>
+  <si>
+    <t>{FEE4E14F-02A9-4550-B5CE-5FA2DA202E37}LT</t>
+  </si>
+  <si>
+    <t>{FEE4E14F-02A9-4550-B5CE-5FA2DA202E37}</t>
+  </si>
+  <si>
+    <t>EventTimestamp</t>
+  </si>
+  <si>
+    <t>ChargeLevel</t>
+  </si>
+  <si>
+    <t>=I#ROW_NUM#/G#ROW_NUM#</t>
+  </si>
+  <si>
+    <t>SRUM ID NUMBER</t>
+  </si>
+  <si>
+    <t>SRUM ENTRY DATE</t>
+  </si>
+  <si>
+    <t>Event Time Stamp</t>
+  </si>
+  <si>
+    <t>Battery Level</t>
+  </si>
+  <si>
+    <t>Percentage of Charged (design capacity)</t>
+  </si>
+  <si>
+    <t>{97C2CE28-A37B-4920-B1E9-8B76CD341EC5}</t>
+  </si>
+  <si>
+    <t>S-1-5-32-545</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Users</t>
+  </si>
+  <si>
+    <t>S-1-5-32-544</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Administrators</t>
+  </si>
+  <si>
+    <t>S-1-5-32-547</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Power Users</t>
+  </si>
+  <si>
+    <t>S-1-5-32-546</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guests</t>
+  </si>
+  <si>
+    <t>S-1-5-32-569</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUILTIN\Cryptographic Operators</t>
+  </si>
+  <si>
+    <t>S-1-16-16384</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> System Mandatory Level</t>
+  </si>
+  <si>
+    <t>S-1-5-32-551</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Backup Operators</t>
+  </si>
+  <si>
+    <t>S-1-16-8192</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medium Mandatory Level</t>
+  </si>
+  <si>
+    <t>S-1-5-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NT Service</t>
+  </si>
+  <si>
+    <t>S-1-5-32-548</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Account Operators</t>
+  </si>
+  <si>
+    <t>S-1-5-32-561</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUILTIN\Terminal Server License Servers</t>
+  </si>
+  <si>
+    <t>S-1-5-64-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SChannel Authentication</t>
+  </si>
+  <si>
+    <t>S-1-5-32-562</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUILTIN\Distributed COM Users</t>
+  </si>
+  <si>
+    <t>S-1-5-64-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Digest Authentication</t>
+  </si>
+  <si>
+    <t>S-1-5-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NT Authority</t>
+  </si>
+  <si>
+    <t>S-1-3-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creator Owner</t>
+  </si>
+  <si>
+    <t>S-1-5-80-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All Services</t>
+  </si>
+  <si>
+    <t>S-1-5-20</t>
+  </si>
+  <si>
+    <t>S-1-5-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Local System</t>
+  </si>
+  <si>
+    <t>S-1-5-32-552</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Replicators</t>
+  </si>
+  <si>
+    <t>S-1-5-32-579</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUILTIN\Access Control Assistance Operators</t>
+  </si>
+  <si>
+    <t>S-1-16-4096</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Low Mandatory Level</t>
+  </si>
+  <si>
+    <t>S-1-16-12288</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> High Mandatory Level</t>
+  </si>
+  <si>
+    <t>S-1-2-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Local</t>
+  </si>
+  <si>
+    <t>S-1-16-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Untrusted Mandatory Level</t>
+  </si>
+  <si>
+    <t>S-1-5-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Batch</t>
+  </si>
+  <si>
+    <t>S-1-5-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Network</t>
+  </si>
+  <si>
+    <t>S-1-5-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dialup</t>
+  </si>
+  <si>
+    <t>S-1-5-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anonymous</t>
+  </si>
+  <si>
+    <t>S-1-5-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Service</t>
+  </si>
+  <si>
+    <t>S-1-5-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interactive</t>
+  </si>
+  <si>
+    <t>S-1-5-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enterprise Domain Controllers</t>
+  </si>
+  <si>
+    <t>S-1-5-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Proxy</t>
+  </si>
+  <si>
+    <t>S-1-5-32-550</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Print Operators</t>
+  </si>
+  <si>
+    <t>S-1-0-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nobody</t>
+  </si>
+  <si>
+    <t>S-1-5-32-559</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUILTIN\Performance Log Users</t>
+  </si>
+  <si>
+    <t>S-1-5-32-578</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUILTIN\Hyper-V Administrators</t>
+  </si>
+  <si>
+    <t>S-1-5-32-549</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Server Operators</t>
+  </si>
+  <si>
+    <t>S-1-2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Console Logon</t>
+  </si>
+  <si>
+    <t>S-1-3-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creator Group</t>
+  </si>
+  <si>
+    <t>S-1-5-32-575</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUILTIN\RDS Remote Access Servers</t>
+  </si>
+  <si>
+    <t>S-1-3-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creator Group Server</t>
+  </si>
+  <si>
+    <t>S-1-3-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creator Owner Server</t>
+  </si>
+  <si>
+    <t>S-1-5-32-556</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUILTIN\Network Configuration Operators</t>
+  </si>
+  <si>
+    <t>S-1-5-32-557</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUILTIN\Incoming Forest Trust Builders</t>
+  </si>
+  <si>
+    <t>S-1-5-32-554</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUILTIN\Pre-Windows 2000 Compatible Access</t>
+  </si>
+  <si>
+    <t>S-1-5-32-573</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUILTIN\Event Log Readers</t>
+  </si>
+  <si>
+    <t>S-1-5-32-576</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUILTIN\RDS Endpoint Servers</t>
+  </si>
+  <si>
+    <t>S-1-5-83-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NT VIRTUAL MACHINE\Virtual Machines</t>
+  </si>
+  <si>
+    <t>S-1-16-28672</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Secure Process Mandatory Level</t>
+  </si>
+  <si>
+    <t>S-1-5-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Authenticated Users</t>
+  </si>
+  <si>
+    <t>S-1-1-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Everyone</t>
+  </si>
+  <si>
+    <t>S-1-5-32-555</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUILTIN\Remote Desktop Users</t>
+  </si>
+  <si>
+    <t>S-1-16-8448</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medium Plus Mandatory Level</t>
+  </si>
+  <si>
+    <t>S-1-5-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This Organization</t>
+  </si>
+  <si>
+    <t>S-1-5-32-580</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUILTIN\Remote Management Users</t>
+  </si>
+  <si>
+    <t>S-1-5-15</t>
+  </si>
+  <si>
+    <t>S-1-5-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Remote Interactive Logon</t>
+  </si>
+  <si>
+    <t>S-1-5-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terminal Server Users</t>
+  </si>
+  <si>
+    <t>S-1-5-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Restricted Code</t>
+  </si>
+  <si>
+    <t>S-1-5-32-577</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUILTIN\RDS Management Servers</t>
+  </si>
+  <si>
+    <t>S-1-5-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Principal Self</t>
+  </si>
+  <si>
+    <t>S-1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Creator Authority</t>
+  </si>
+  <si>
+    <t>S-1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Local Authority</t>
+  </si>
+  <si>
+    <t>S-1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> World Authority</t>
+  </si>
+  <si>
+    <t>S-1-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Null Authority</t>
+  </si>
+  <si>
+    <t>S-1-5-32-574</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUILTIN\Certificate Service DCOM Access</t>
+  </si>
+  <si>
+    <t>S-1-5</t>
+  </si>
+  <si>
+    <t>S-1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Non-unique Authority</t>
+  </si>
+  <si>
+    <t>S-1-5-32-560</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUILTIN\Windows Authorization Access Group</t>
+  </si>
+  <si>
+    <t>S-1-16-20480</t>
+  </si>
+  <si>
+    <t>S-1-5-64-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NTLM Authentication</t>
+  </si>
+  <si>
+    <t>S-1-5-32-558</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUILTIN\Performance Monitor Users</t>
+  </si>
+  <si>
+    <t>IF_TYPE_CES</t>
+  </si>
+  <si>
+    <t>IF_TYPE_COFFEE</t>
+  </si>
+  <si>
+    <t>IF_TYPE_TUNNEL</t>
+  </si>
+  <si>
+    <t>IF_TYPE_A12MPPSWITCH</t>
+  </si>
+  <si>
+    <t>IF_TYPE_L3_IPXVLAN</t>
+  </si>
+  <si>
+    <t>IF_TYPE_L3_IPVLAN</t>
+  </si>
+  <si>
+    <t>IF_TYPE_L2_VLAN</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ATM_SUBINTERFACE</t>
+  </si>
+  <si>
+    <t>IF_TYPE_MEDIAMAILOVERIP</t>
+  </si>
+  <si>
+    <t>IF_TYPE_DIGITALPOWERLINE</t>
+  </si>
+  <si>
+    <t>IF_TYPE_SOFTWARE_LOOPBACK</t>
+  </si>
+  <si>
+    <t>IF_TYPE_EON</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ETHERNET_3MBIT</t>
+  </si>
+  <si>
+    <t>IF_TYPE_NSIP</t>
+  </si>
+  <si>
+    <t>IF_TYPE_BASIC_ISDN</t>
+  </si>
+  <si>
+    <t>IF_TYPE_PRIMARY_ISDN</t>
+  </si>
+  <si>
+    <t>IF_TYPE_PROP_POINT2POINT_SERIAL</t>
+  </si>
+  <si>
+    <t>IF_TYPE_PPP</t>
+  </si>
+  <si>
+    <t>IF_TYPE_SLIP</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ULTRA</t>
+  </si>
+  <si>
+    <t>IF_TYPE_DDN_X25</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ISO88024_TOKENBUS</t>
+  </si>
+  <si>
+    <t>IF_TYPE_LAP_F</t>
+  </si>
+  <si>
+    <t>IF_TYPE_V37</t>
+  </si>
+  <si>
+    <t>IF_TYPE_X25_MLP</t>
+  </si>
+  <si>
+    <t>IF_TYPE_X25_HUNTGROUP</t>
+  </si>
+  <si>
+    <t>IF_TYPE_TRANSPHDLC</t>
+  </si>
+  <si>
+    <t>IF_TYPE_INTERLEAVE</t>
+  </si>
+  <si>
+    <t>IF_TYPE_FAST</t>
+  </si>
+  <si>
+    <t>IF_TYPE_IP</t>
+  </si>
+  <si>
+    <t>IF_TYPE_DOCSCABLE_MACLAYER</t>
+  </si>
+  <si>
+    <t>IF_TYPE_DOCSCABLE_DOWNSTREAM</t>
+  </si>
+  <si>
+    <t>IF_TYPE_DOCSCABLE_UPSTREAM</t>
+  </si>
+  <si>
+    <t>IF_TYPE_HDLC</t>
+  </si>
+  <si>
+    <t>IF_TYPE_AFLANE_8023</t>
+  </si>
+  <si>
+    <t>IF_TYPE_FRAMERELAY_INTERCONNECT</t>
+  </si>
+  <si>
+    <t>IF_TYPE_IEEE80212</t>
+  </si>
+  <si>
+    <t>IF_TYPE_PROP_MULTIPLEXOR</t>
+  </si>
+  <si>
+    <t>IF_TYPE_HIPPIINTERFACE</t>
+  </si>
+  <si>
+    <t>IF_TYPE_FIBRECHANNEL</t>
+  </si>
+  <si>
+    <t>IF_TYPE_SONET_VT</t>
+  </si>
+  <si>
+    <t>IF_TYPE_SONET_PATH</t>
+  </si>
+  <si>
+    <t>IF_TYPE_PROP_VIRTUAL</t>
+  </si>
+  <si>
+    <t>IF_TYPE_SMDS_ICIP</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ISO88025_FIBER</t>
+  </si>
+  <si>
+    <t>IF_TYPE_IPOVER_ATM</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ARAP</t>
+  </si>
+  <si>
+    <t>IF_TYPE_PROP_CNLS</t>
+  </si>
+  <si>
+    <t>IF_TYPE_STACKTOSTACK</t>
+  </si>
+  <si>
+    <t>IF_TYPE_IPOVER_CLAW</t>
+  </si>
+  <si>
+    <t>IF_TYPE_MPC</t>
+  </si>
+  <si>
+    <t>IF_TYPE_VIRTUALIPADDRESS</t>
+  </si>
+  <si>
+    <t>IF_TYPE_DS0_BUNDLE</t>
+  </si>
+  <si>
+    <t>IF_TYPE_BSC</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ATM_LOGICAL</t>
+  </si>
+  <si>
+    <t>IF_TYPE_DS0</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ISO88025R_DTR</t>
+  </si>
+  <si>
+    <t>IF_TYPE_EPLRS</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ASYNC</t>
+  </si>
+  <si>
+    <t>IF_TYPE_CNR</t>
+  </si>
+  <si>
+    <t>IF_TYPE_HDH_1822</t>
+  </si>
+  <si>
+    <t>IF_TYPE_IS088023_CSMACD</t>
+  </si>
+  <si>
+    <t>IF_TYPE_PPPMULTILINKBUNDLE</t>
+  </si>
+  <si>
+    <t>IF_TYPE_IPOVER_CDLC</t>
+  </si>
+  <si>
+    <t>IF_TYPE_VOICE_FXS</t>
+  </si>
+  <si>
+    <t>IF_TYPE_VOICE_ENCAP</t>
+  </si>
+  <si>
+    <t>IF_TYPE_VOICE_EM</t>
+  </si>
+  <si>
+    <t>IF_TYPE_VOICE_FXO</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ATM_FUNI</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ATM_IMA</t>
+  </si>
+  <si>
+    <t>IF_TYPE_VOICE_OVERIP</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ATM_DXI</t>
+  </si>
+  <si>
+    <t>IF_TYPE_SONET</t>
+  </si>
+  <si>
+    <t>IF_TYPE_MIO_X25</t>
+  </si>
+  <si>
+    <t>IF_TYPE_RS232</t>
+  </si>
+  <si>
+    <t>IF_TYPE_FRAMERELAY</t>
+  </si>
+  <si>
+    <t>IF_TYPE_SIP</t>
+  </si>
+  <si>
+    <t>IF_TYPE_DS3</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ATM</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ARCNET_PLUS</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ARCNET</t>
+  </si>
+  <si>
+    <t>IF_TYPE_PARA</t>
+  </si>
+  <si>
+    <t>IF_TYPE_AFLANE_8025</t>
+  </si>
+  <si>
+    <t>IF_TYPE_CCTEMUL</t>
+  </si>
+  <si>
+    <t>IF_TYPE_FASTETHER</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ISDN</t>
+  </si>
+  <si>
+    <t>IF_TYPE_V11</t>
+  </si>
+  <si>
+    <t>IF_TYPE_V36</t>
+  </si>
+  <si>
+    <t>IF_TYPE_G703_64K</t>
+  </si>
+  <si>
+    <t>IF_TYPE_G703_2MB</t>
+  </si>
+  <si>
+    <t>IF_TYPE_QLLC</t>
+  </si>
+  <si>
+    <t>IF_TYPE_FASTETHER_FX</t>
+  </si>
+  <si>
+    <t>IF_TYPE_REGULAR_1822</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ETHERNET_CSMACD</t>
+  </si>
+  <si>
+    <t>IF_TYPE_MYRINET</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ISO88025_CRFPRINT</t>
+  </si>
+  <si>
+    <t>IF_TYPE_TERMPAD</t>
+  </si>
+  <si>
+    <t>IF_TYPE_HOSTPAD</t>
+  </si>
+  <si>
+    <t>IF_TYPE_X213</t>
+  </si>
+  <si>
+    <t>IF_TYPE_FRAMERELAY_MPI</t>
+  </si>
+  <si>
+    <t>IF_TYPE_RADSL</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ADSL</t>
+  </si>
+  <si>
+    <t>IF_TYPE_VDSL</t>
+  </si>
+  <si>
+    <t>IF_TYPE_SDSL</t>
+  </si>
+  <si>
+    <t>IF_TYPE_STARLAN</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ISO88026_MAN</t>
+  </si>
+  <si>
+    <t>IF_TYPE_PROTEON_80MBIT</t>
+  </si>
+  <si>
+    <t>IF_TYPE_PROTEON_10MBIT</t>
+  </si>
+  <si>
+    <t>IF_TYPE_FDDI</t>
+  </si>
+  <si>
+    <t>IF_TYPE_HYPERCHANNEL</t>
+  </si>
+  <si>
+    <t>IF_TYPE_SDLC</t>
+  </si>
+  <si>
+    <t>IF_TYPE_LAP_B</t>
+  </si>
+  <si>
+    <t>IF_TYPE_E1</t>
+  </si>
+  <si>
+    <t>IF_TYPE_DS1</t>
+  </si>
+  <si>
+    <t>IF_TYPE_GIGABITETHERNET</t>
+  </si>
+  <si>
+    <t>IF_TYPE_TDLC</t>
+  </si>
+  <si>
+    <t>IF_TYPE_MODEM</t>
+  </si>
+  <si>
+    <t>IF_TYPE_AAL5</t>
+  </si>
+  <si>
+    <t>IF_TYPE_HSSI</t>
+  </si>
+  <si>
+    <t>IF_TYPE_HIPPI</t>
+  </si>
+  <si>
+    <t>IF_TYPE_FRAMERELAY_SERVICE</t>
+  </si>
+  <si>
+    <t>IF_TYPE_V35</t>
+  </si>
+  <si>
+    <t>IF_TYPE_LOCALTALK</t>
+  </si>
+  <si>
+    <t>IF_TYPE_SMDS_DXI</t>
+  </si>
+  <si>
+    <t>IF_TYPE_X25_PLE</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ISO88022_LLC</t>
+  </si>
+  <si>
+    <t>IF_TYPE_OTHER</t>
+  </si>
+  <si>
+    <t>IF_TYPE_RFC877_X25</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ISO88025_TOKENRING</t>
+  </si>
+  <si>
+    <t>IF_TYPE_IEEE1394</t>
+  </si>
+  <si>
+    <t>IF_TYPE_RECEIVE_ONLY</t>
+  </si>
+  <si>
+    <t>IF_TYPE_IPFORWARD</t>
+  </si>
+  <si>
+    <t>IF_TYPE_MSDSL</t>
+  </si>
+  <si>
+    <t>IF_TYPE_DTM</t>
+  </si>
+  <si>
+    <t>IF_TYPE_DCN</t>
+  </si>
+  <si>
+    <t>IF_TYPE_LAP_D</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ISDN_U</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ISDN_S</t>
+  </si>
+  <si>
+    <t>IF_TYPE_DLSW</t>
+  </si>
+  <si>
+    <t>IF_TYPE_ESCON</t>
+  </si>
+  <si>
+    <t>IF_TYPE_IBM370PARCHAN</t>
+  </si>
+  <si>
+    <t>IF_TYPE_IEEE80211</t>
+  </si>
+  <si>
+    <t>IF_TYPE_CHANNEL</t>
+  </si>
+  <si>
+    <t>IF_TYPE_RSRB</t>
+  </si>
+  <si>
+    <t>IF_TYPE_IPSWITCH</t>
+  </si>
+  <si>
+    <t>Flags</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>DurationMS</t>
+  </si>
+  <si>
+    <t>SpanMS</t>
+  </si>
+  <si>
+    <t>TimelineEnd</t>
+  </si>
+  <si>
+    <t>InFocusTimeline</t>
+  </si>
+  <si>
+    <t>UserInputTimeline</t>
+  </si>
+  <si>
+    <t>CompRenderedTimeline</t>
+  </si>
+  <si>
+    <t>CompDirtiedTimeline</t>
+  </si>
+  <si>
+    <t>CompPropagatedTimeline</t>
+  </si>
+  <si>
+    <t>AudioInTimeline</t>
+  </si>
+  <si>
+    <t>AudioOutTimeline</t>
+  </si>
+  <si>
+    <t>CpuTimeline</t>
+  </si>
+  <si>
+    <t>DiskTimeline</t>
+  </si>
+  <si>
+    <t>NetworkTimeline</t>
+  </si>
+  <si>
+    <t>MBBTimeline</t>
+  </si>
+  <si>
+    <t>InFocusS</t>
+  </si>
+  <si>
+    <t>PSMForegroundS</t>
+  </si>
+  <si>
+    <t>UserInputS</t>
+  </si>
+  <si>
+    <t>CompRenderedS</t>
+  </si>
+  <si>
+    <t>CompDirtiedS</t>
+  </si>
+  <si>
+    <t>CompPropagatedS</t>
+  </si>
+  <si>
+    <t>AudioInS</t>
+  </si>
+  <si>
+    <t>AudioOutS</t>
+  </si>
+  <si>
+    <t>Cycles</t>
+  </si>
+  <si>
+    <t>CyclesBreakdown</t>
+  </si>
+  <si>
+    <t>CyclesAttr</t>
+  </si>
+  <si>
+    <t>CyclesAttrBreakdown</t>
+  </si>
+  <si>
+    <t>CyclesWOB</t>
+  </si>
+  <si>
+    <t>CyclesWOBBreakdown</t>
+  </si>
+  <si>
+    <t>DiskRaw</t>
+  </si>
+  <si>
+    <t>NetworkTailRaw</t>
+  </si>
+  <si>
+    <t>NetworkBytesRaw</t>
+  </si>
+  <si>
+    <t>MBBTailRaw</t>
+  </si>
+  <si>
+    <t>MBBBytesRaw</t>
+  </si>
+  <si>
+    <t>DisplayRequiredS</t>
+  </si>
+  <si>
+    <t>DisplayRequiredTimeline</t>
+  </si>
+  <si>
+    <t>KeyboardInputTimeline</t>
+  </si>
+  <si>
+    <t>KeyboardInputS</t>
+  </si>
+  <si>
+    <t>MouseInputS</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>Energy Data</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>{5C8CF1C7-7257-4F13-B223-970EF5939312}</t>
+  </si>
+  <si>
+    <t>{7ACBBAA3-D029-4BE4-9A7A-0885927F1D8F}</t>
+  </si>
+  <si>
+    <t>{B6D82AF1-F780-4E17-8077-6CB9AD8A6FC4}</t>
+  </si>
+  <si>
+    <t>{DA73FB89-2BEA-4DDC-86B8-6E048C6DA477}</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Four</t>
+  </si>
+  <si>
+    <t>Five</t>
+  </si>
+  <si>
+    <t>Six</t>
+  </si>
+  <si>
+    <t>Seven</t>
+  </si>
+  <si>
+    <t>Eight</t>
+  </si>
+  <si>
+    <t>Nine</t>
+  </si>
+  <si>
+    <t>lookup-ExampleNumNames</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Protected Process Mandatory Level</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>S-1-5-32-5581</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> BUILTIN\Performance Monitor Users1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m/d/yy\ h:mm;@"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -49,11 +1446,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -114,9 +1536,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -149,9 +1571,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -330,13 +1752,3285 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="2" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:B75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>193</v>
+      </c>
+      <c r="B55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>198</v>
+      </c>
+      <c r="B58" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>200</v>
+      </c>
+      <c r="B59" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>204</v>
+      </c>
+      <c r="B61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>206</v>
+      </c>
+      <c r="B62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>208</v>
+      </c>
+      <c r="B63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>216</v>
+      </c>
+      <c r="B67" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>218</v>
+      </c>
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>221</v>
+      </c>
+      <c r="B70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>224</v>
+      </c>
+      <c r="B72" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>226</v>
+      </c>
+      <c r="B73" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:B145"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>138</v>
+      </c>
+      <c r="B10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>124</v>
+      </c>
+      <c r="B28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>126</v>
+      </c>
+      <c r="B30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>127</v>
+      </c>
+      <c r="B31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>128</v>
+      </c>
+      <c r="B32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>129</v>
+      </c>
+      <c r="B33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>114</v>
+      </c>
+      <c r="B46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>113</v>
+      </c>
+      <c r="B51" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>112</v>
+      </c>
+      <c r="B52" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>83</v>
+      </c>
+      <c r="B54" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>80</v>
+      </c>
+      <c r="B55" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>81</v>
+      </c>
+      <c r="B56" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>86</v>
+      </c>
+      <c r="B57" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>87</v>
+      </c>
+      <c r="B58" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>85</v>
+      </c>
+      <c r="B60" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>108</v>
+      </c>
+      <c r="B63" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>109</v>
+      </c>
+      <c r="B64" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>102</v>
+      </c>
+      <c r="B65" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>103</v>
+      </c>
+      <c r="B66" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>100</v>
+      </c>
+      <c r="B67" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>101</v>
+      </c>
+      <c r="B68" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>106</v>
+      </c>
+      <c r="B69" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>107</v>
+      </c>
+      <c r="B70" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>104</v>
+      </c>
+      <c r="B71" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>105</v>
+      </c>
+      <c r="B72" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>38</v>
+      </c>
+      <c r="B74" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>33</v>
+      </c>
+      <c r="B75" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>32</v>
+      </c>
+      <c r="B76" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>30</v>
+      </c>
+      <c r="B78" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>37</v>
+      </c>
+      <c r="B79" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>36</v>
+      </c>
+      <c r="B80" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>35</v>
+      </c>
+      <c r="B81" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>34</v>
+      </c>
+      <c r="B82" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>60</v>
+      </c>
+      <c r="B83" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>61</v>
+      </c>
+      <c r="B84" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>62</v>
+      </c>
+      <c r="B85" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>63</v>
+      </c>
+      <c r="B86" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>64</v>
+      </c>
+      <c r="B87" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>65</v>
+      </c>
+      <c r="B88" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>66</v>
+      </c>
+      <c r="B89" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>67</v>
+      </c>
+      <c r="B90" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>68</v>
+      </c>
+      <c r="B91" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>69</v>
+      </c>
+      <c r="B92" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>99</v>
+      </c>
+      <c r="B95" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>91</v>
+      </c>
+      <c r="B97" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>90</v>
+      </c>
+      <c r="B98" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>93</v>
+      </c>
+      <c r="B99" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>92</v>
+      </c>
+      <c r="B100" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>95</v>
+      </c>
+      <c r="B101" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>94</v>
+      </c>
+      <c r="B102" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>97</v>
+      </c>
+      <c r="B103" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>96</v>
+      </c>
+      <c r="B104" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>12</v>
+      </c>
+      <c r="B108" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>15</v>
+      </c>
+      <c r="B109" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>17</v>
+      </c>
+      <c r="B111" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>19</v>
+      </c>
+      <c r="B113" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>18</v>
+      </c>
+      <c r="B114" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>48</v>
+      </c>
+      <c r="B117" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>49</v>
+      </c>
+      <c r="B118" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>46</v>
+      </c>
+      <c r="B119" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>47</v>
+      </c>
+      <c r="B120" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>44</v>
+      </c>
+      <c r="B121" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>45</v>
+      </c>
+      <c r="B122" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>42</v>
+      </c>
+      <c r="B123" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>43</v>
+      </c>
+      <c r="B124" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>40</v>
+      </c>
+      <c r="B125" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>41</v>
+      </c>
+      <c r="B126" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>144</v>
+      </c>
+      <c r="B130" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>145</v>
+      </c>
+      <c r="B131" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>142</v>
+      </c>
+      <c r="B132" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>143</v>
+      </c>
+      <c r="B133" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>140</v>
+      </c>
+      <c r="B134" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>141</v>
+      </c>
+      <c r="B135" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>77</v>
+      </c>
+      <c r="B136" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>76</v>
+      </c>
+      <c r="B137" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>75</v>
+      </c>
+      <c r="B138" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>74</v>
+      </c>
+      <c r="B139" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>73</v>
+      </c>
+      <c r="B140" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>72</v>
+      </c>
+      <c r="B141" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>71</v>
+      </c>
+      <c r="B142" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>70</v>
+      </c>
+      <c r="B143" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>79</v>
+      </c>
+      <c r="B144" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>78</v>
+      </c>
+      <c r="B145" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AR4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16383" width="9.140625" style="2"/>
+    <col min="16384" max="16384" width="29.140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44">
+      <c r="A1" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="2" t="e">
+        <f>CONCATENATE(TEXT(INT(H2/1000)/86400,"hh:mm:ss"))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="9" max="16383" width="9.140625" style="2"/>
+    <col min="16384" max="16384" width="29.140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1">
+      <c r="A4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <phoneticPr fontId="4"/>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:XFB4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="41.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" style="2" customWidth="1"/>
+    <col min="17" max="16382" width="9.140625" style="2" hidden="1"/>
+    <col min="16383" max="16383" width="9.140625" style="8" hidden="1"/>
+    <col min="16384" max="16384" width="9.140625" style="8" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="H9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:XFA13"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16381" width="9.140625" style="2" hidden="1"/>
+    <col min="16382" max="16384" width="11.140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed"/>
+</worksheet>
 </file>
--- a/SRUM_TEMPLATE2.xlsx
+++ b/SRUM_TEMPLATE2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CHEN\01_devolment\04_Python\21_srum2\srum-dump-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lo127\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69569E9-F999-4CF0-911B-1B23E267BAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6EB1B8-D139-4635-A9A6-7F3427E6C10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24885" yWindow="270" windowWidth="24525" windowHeight="14550" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="43140" windowHeight="21075" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application Resource Usage" sheetId="2" r:id="rId1"/>
@@ -56,11 +56,22 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing css="0" allowPng="1" codePage="1252"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="435">
   <si>
     <t>AutoIncId</t>
   </si>
@@ -734,6 +745,9 @@
     <t>S-1-16-20480</t>
   </si>
   <si>
+    <t xml:space="preserve"> Protected Process Mandatory Level</t>
+  </si>
+  <si>
     <t>S-1-5-64-10</t>
   </si>
   <si>
@@ -1362,18 +1376,6 @@
   </si>
   <si>
     <t>seconds</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Protected Process Mandatory Level</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>S-1-5-32-5581</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> BUILTIN\Performance Monitor Users1</t>
-    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1381,9 +1383,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1406,12 +1408,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1448,34 +1444,36 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1756,7 +1754,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -1918,7 +1916,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" cellComments="asDisplayed"/>
 </worksheet>
@@ -2008,7 +2005,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" cellComments="asDisplayed"/>
 </worksheet>
@@ -2084,7 +2080,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" cellComments="asDisplayed"/>
 </worksheet>
@@ -2092,15 +2087,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2668,44 +2663,27 @@
       <c r="A71" t="s">
         <v>223</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>434</v>
+      <c r="B71" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B72" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B73" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>436</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2725,7 +2703,7 @@
         <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2733,7 +2711,7 @@
         <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2741,7 +2719,7 @@
         <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2749,7 +2727,7 @@
         <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2757,7 +2735,7 @@
         <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2765,7 +2743,7 @@
         <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2773,7 +2751,7 @@
         <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2781,7 +2759,7 @@
         <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2789,7 +2767,7 @@
         <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2797,7 +2775,7 @@
         <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2805,7 +2783,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2813,7 +2791,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2821,7 +2799,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2829,7 +2807,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2837,7 +2815,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2845,7 +2823,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2853,7 +2831,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2861,7 +2839,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2869,7 +2847,7 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2877,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2885,7 +2863,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2893,7 +2871,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2901,7 +2879,7 @@
         <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2909,7 +2887,7 @@
         <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2917,7 +2895,7 @@
         <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2925,7 +2903,7 @@
         <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2933,7 +2911,7 @@
         <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2941,7 +2919,7 @@
         <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2949,7 +2927,7 @@
         <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2957,7 +2935,7 @@
         <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2965,7 +2943,7 @@
         <v>127</v>
       </c>
       <c r="B31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2973,7 +2951,7 @@
         <v>128</v>
       </c>
       <c r="B32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2981,7 +2959,7 @@
         <v>129</v>
       </c>
       <c r="B33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2989,7 +2967,7 @@
         <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2997,7 +2975,7 @@
         <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3005,7 +2983,7 @@
         <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3013,7 +2991,7 @@
         <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3021,7 +2999,7 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3029,7 +3007,7 @@
         <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3037,7 +3015,7 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3045,7 +3023,7 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3053,7 +3031,7 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3061,7 +3039,7 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3069,7 +3047,7 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3077,7 +3055,7 @@
         <v>115</v>
       </c>
       <c r="B45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3085,7 +3063,7 @@
         <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3093,7 +3071,7 @@
         <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3101,7 +3079,7 @@
         <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3109,7 +3087,7 @@
         <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3117,7 +3095,7 @@
         <v>110</v>
       </c>
       <c r="B50" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3125,7 +3103,7 @@
         <v>113</v>
       </c>
       <c r="B51" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3133,7 +3111,7 @@
         <v>112</v>
       </c>
       <c r="B52" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3141,7 +3119,7 @@
         <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3149,7 +3127,7 @@
         <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3157,7 +3135,7 @@
         <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3165,7 +3143,7 @@
         <v>81</v>
       </c>
       <c r="B56" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3173,7 +3151,7 @@
         <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3181,7 +3159,7 @@
         <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3189,7 +3167,7 @@
         <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3197,7 +3175,7 @@
         <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3205,7 +3183,7 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3213,7 +3191,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3221,7 +3199,7 @@
         <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3229,7 +3207,7 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3237,7 +3215,7 @@
         <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3245,7 +3223,7 @@
         <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3253,7 +3231,7 @@
         <v>100</v>
       </c>
       <c r="B67" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3261,7 +3239,7 @@
         <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3269,7 +3247,7 @@
         <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3277,7 +3255,7 @@
         <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3285,7 +3263,7 @@
         <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3293,7 +3271,7 @@
         <v>105</v>
       </c>
       <c r="B72" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3301,7 +3279,7 @@
         <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3309,7 +3287,7 @@
         <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3317,7 +3295,7 @@
         <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3325,7 +3303,7 @@
         <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3333,7 +3311,7 @@
         <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3341,7 +3319,7 @@
         <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3349,7 +3327,7 @@
         <v>37</v>
       </c>
       <c r="B79" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3357,7 +3335,7 @@
         <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3365,7 +3343,7 @@
         <v>35</v>
       </c>
       <c r="B81" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3373,7 +3351,7 @@
         <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3381,7 +3359,7 @@
         <v>60</v>
       </c>
       <c r="B83" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3389,7 +3367,7 @@
         <v>61</v>
       </c>
       <c r="B84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3397,7 +3375,7 @@
         <v>62</v>
       </c>
       <c r="B85" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3405,7 +3383,7 @@
         <v>63</v>
       </c>
       <c r="B86" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3413,7 +3391,7 @@
         <v>64</v>
       </c>
       <c r="B87" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3421,7 +3399,7 @@
         <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3429,7 +3407,7 @@
         <v>66</v>
       </c>
       <c r="B89" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3437,7 +3415,7 @@
         <v>67</v>
       </c>
       <c r="B90" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3445,7 +3423,7 @@
         <v>68</v>
       </c>
       <c r="B91" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3453,7 +3431,7 @@
         <v>69</v>
       </c>
       <c r="B92" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3461,7 +3439,7 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -3469,7 +3447,7 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3477,7 +3455,7 @@
         <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -3485,7 +3463,7 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3493,7 +3471,7 @@
         <v>91</v>
       </c>
       <c r="B97" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -3501,7 +3479,7 @@
         <v>90</v>
       </c>
       <c r="B98" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -3509,7 +3487,7 @@
         <v>93</v>
       </c>
       <c r="B99" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -3517,7 +3495,7 @@
         <v>92</v>
       </c>
       <c r="B100" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -3525,7 +3503,7 @@
         <v>95</v>
       </c>
       <c r="B101" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -3533,7 +3511,7 @@
         <v>94</v>
       </c>
       <c r="B102" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -3541,7 +3519,7 @@
         <v>97</v>
       </c>
       <c r="B103" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -3549,7 +3527,7 @@
         <v>96</v>
       </c>
       <c r="B104" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -3557,7 +3535,7 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3565,7 +3543,7 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -3573,7 +3551,7 @@
         <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3581,7 +3559,7 @@
         <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3589,7 +3567,7 @@
         <v>15</v>
       </c>
       <c r="B109" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3597,7 +3575,7 @@
         <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3605,7 +3583,7 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3613,7 +3591,7 @@
         <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3621,7 +3599,7 @@
         <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3629,7 +3607,7 @@
         <v>18</v>
       </c>
       <c r="B114" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3637,7 +3615,7 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3645,7 +3623,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3653,7 +3631,7 @@
         <v>48</v>
       </c>
       <c r="B117" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3661,7 +3639,7 @@
         <v>49</v>
       </c>
       <c r="B118" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3669,7 +3647,7 @@
         <v>46</v>
       </c>
       <c r="B119" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3677,7 +3655,7 @@
         <v>47</v>
       </c>
       <c r="B120" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3685,7 +3663,7 @@
         <v>44</v>
       </c>
       <c r="B121" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3693,7 +3671,7 @@
         <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3701,7 +3679,7 @@
         <v>42</v>
       </c>
       <c r="B123" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -3709,7 +3687,7 @@
         <v>43</v>
       </c>
       <c r="B124" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -3717,7 +3695,7 @@
         <v>40</v>
       </c>
       <c r="B125" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -3725,7 +3703,7 @@
         <v>41</v>
       </c>
       <c r="B126" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3733,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -3741,7 +3719,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3749,7 +3727,7 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3757,7 +3735,7 @@
         <v>144</v>
       </c>
       <c r="B130" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3765,7 +3743,7 @@
         <v>145</v>
       </c>
       <c r="B131" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3773,7 +3751,7 @@
         <v>142</v>
       </c>
       <c r="B132" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3781,7 +3759,7 @@
         <v>143</v>
       </c>
       <c r="B133" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3789,7 +3767,7 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3797,7 +3775,7 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3805,7 +3783,7 @@
         <v>77</v>
       </c>
       <c r="B136" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3813,7 +3791,7 @@
         <v>76</v>
       </c>
       <c r="B137" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3821,7 +3799,7 @@
         <v>75</v>
       </c>
       <c r="B138" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3829,7 +3807,7 @@
         <v>74</v>
       </c>
       <c r="B139" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3837,7 +3815,7 @@
         <v>73</v>
       </c>
       <c r="B140" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3845,7 +3823,7 @@
         <v>72</v>
       </c>
       <c r="B141" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3853,7 +3831,7 @@
         <v>71</v>
       </c>
       <c r="B142" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3861,7 +3839,7 @@
         <v>70</v>
       </c>
       <c r="B143" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -3869,7 +3847,7 @@
         <v>79</v>
       </c>
       <c r="B144" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3877,11 +3855,10 @@
         <v>78</v>
       </c>
       <c r="B145" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3901,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3909,7 +3886,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3917,7 +3894,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3925,7 +3902,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3933,7 +3910,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3941,7 +3918,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3949,7 +3926,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3957,7 +3934,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3965,7 +3942,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3973,13 +3950,11 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4010,141 +3985,141 @@
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" s="6" customFormat="1">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="O2" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="R2" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="S2" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="T2" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="U2" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="V2" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="W2" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="X2" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Y2" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="Z2" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AA2" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AB2" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AC2" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AD2" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AE2" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AF2" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AG2" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AH2" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AI2" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AK2" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AL2" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AM2" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AN2" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AO2" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AP2" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>412</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -4184,7 +4159,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" cellComments="asDisplayed"/>
 </worksheet>
@@ -4211,23 +4185,23 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4261,7 +4235,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" cellComments="asDisplayed"/>
 </worksheet>
@@ -4289,56 +4262,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4382,7 +4355,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -4427,8 +4399,8 @@
     <col min="15" max="15" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.7109375" style="2" customWidth="1"/>
     <col min="17" max="16382" width="9.140625" style="2" hidden="1"/>
-    <col min="16383" max="16383" width="9.140625" style="8" hidden="1"/>
-    <col min="16384" max="16384" width="9.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="16383" max="16383" width="9.140625" style="9" hidden="1"/>
+    <col min="16384" max="16384" width="9.140625" style="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4496,23 +4468,23 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>433</v>
+      <c r="E3" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4567,7 +4539,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" cellComments="asDisplayed"/>
 </worksheet>
@@ -4593,30 +4564,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="6" customFormat="1">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>417</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4647,7 +4618,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" cellComments="asDisplayed"/>
 </worksheet>
@@ -4730,7 +4700,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>73</v>
@@ -4806,7 +4776,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
 </worksheet>
@@ -4874,7 +4843,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4883,14 +4852,14 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>53</v>
@@ -4935,7 +4904,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" cellComments="asDisplayed"/>
 </worksheet>
@@ -4945,7 +4913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -4964,33 +4932,33 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>414</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5003,10 +4971,10 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5024,12 +4992,11 @@
         <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" cellComments="asDisplayed"/>
 </worksheet>
